--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -451,827 +451,1117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>519002</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>华安安信消费混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>93.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040035</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安逆向策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>040001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安创新混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>77.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005136</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安幸福生活混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001694</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>87.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1281,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1592,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001736</t>
+          <t>163406</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰优加生活股票</t>
+          <t>兴全合润混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>269.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>001694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>华安沪港深外延增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>010385</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>华安汇嘉精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>57.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151002</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河收益债券</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519002</t>
+          <t>040035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安安信消费混合</t>
+          <t>华安逆向策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>34.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>001736</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>圆信永丰优加生活股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>163406</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴全合润混合</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>040035</t>
+          <t>010064</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安逆向策略混合</t>
+          <t>圆信永丰兴研灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.30</t>
+          <t>24.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>200006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>长城消费增值混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>14.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1668,15 +2088,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>90.74</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005953</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>人保转型新动力灵活配置混合A</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005954</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>人保转型新动力灵活配置混合C</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001694</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010064</t>
+          <t>005136</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
+          <t>华安幸福生活混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010065</t>
+          <t>001197</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
+          <t>长盛转型升级主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009266</t>
+          <t>010386</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏扬景合六个月持有期混合</t>
+          <t>华安汇嘉精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>004959</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>圆信永丰优悦生活混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006198</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长盛龙头双核驱动混合</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.94</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>007063</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合A</t>
+          <t>长盛研发回报混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002416</t>
+          <t>008245</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合C</t>
+          <t>圆信永丰致优混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010313</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上银鑫恒混合</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>84.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>450007</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国富成长动力混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.68</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>002935</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>泰康恒泰回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>010386</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合C</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>006881</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>华宝大健康混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>010313</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>上银鑫恒混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>151002</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>银河收益债券</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006881</t>
+          <t>010065</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华宝大健康混合</t>
+          <t>圆信永丰兴研灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>69.74</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2330,25 +2990,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>009266</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>鹏扬景合六个月持有期混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007063</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长盛研发回报混合</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>89.04</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>005953</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>人保转型新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001197</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长盛转型升级主题灵活配置混合</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>71.49</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>6</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>571002</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>诺德主题灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>450007</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>国富成长动力混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>006198</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>长盛龙头双核驱动混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>10</v>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>008246</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>圆信永丰致优混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10.02</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>005136</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华安幸福生活混合</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>8</v>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008885</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>博远博锐混合C</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>4</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>200006</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长城消费增值混合</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>7</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2946,25 +3826,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>10</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>9</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>9</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>010055</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>万家健康产业混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -3086,25 +4016,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>002416</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>招商丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>008246</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>005954</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>人保转型新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>4</v>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>004959</t>
+          <t>008885</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>圆信永丰优悦生活混合</t>
+          <t>博远博锐混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>5</v>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3198,25 +4168,35 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4203,4 +4204,2720 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6200</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>55.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6920,4 +6921,4310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5956</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5270</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2325</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7640</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6935</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4966</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11227,4 +11228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11236,7 +11237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11247,17 +11248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11267,14 +11288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.56</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -11283,14 +11326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.78</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -11299,14 +11364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.89</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -11315,13 +11402,3337 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6846</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3638</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0916</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8435</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14631,7 +14632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14642,17 +14643,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14662,14 +14683,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.31</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14678,14 +14721,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.56</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -14694,14 +14759,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.78</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14710,14 +14797,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.89</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -14726,13 +14835,3621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6867</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18332,7 +18333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18343,17 +18344,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18363,14 +18384,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.67</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -18379,14 +18422,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.31</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -18395,14 +18460,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>112</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.56</v>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -18411,14 +18498,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.78</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -18427,14 +18536,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>68</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.89</v>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -18443,13 +18574,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.16</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>44.67</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>44.31</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>53.56</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>26.78</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>24.89</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.14</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4887,7 +5758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8281,7 +9152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12587,7 +13458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15303,7 +16174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17943,7 +18814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000739-普洛药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>4.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>3.16</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>44.67</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>44.31</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>53.56</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D7" t="n">
-        <v>26.78</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>24.89</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1754,2224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河收益混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +4825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5758,7 +9113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9152,7 +12507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13458,7 +16813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16174,7 +19529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18812,1124 +22167,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.0482</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001694</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3742</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2809</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2562</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519056</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通内需热点混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8366</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040035</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安逆向策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>33.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8292</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8087</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7915</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>040001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安创新混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>77.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5372</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>151001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河稳健混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>74.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5055</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4189</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005136</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安幸福生活混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3915</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2934</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519015</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通精选贰号混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>77.71</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2825</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1598</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1231</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0468</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>